--- a/branches/update-code-systems/ValueSet-vs-specimen-type.xlsx
+++ b/branches/update-code-systems/ValueSet-vs-specimen-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T09:53:38+00:00</t>
+    <t>2023-03-14T11:49:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-code-systems/ValueSet-vs-specimen-type.xlsx
+++ b/branches/update-code-systems/ValueSet-vs-specimen-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T11:49:46+00:00</t>
+    <t>2023-03-24T12:30:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,31 +105,31 @@
     <t>119361006</t>
   </si>
   <si>
-    <t>Plasma specimen (specimen)</t>
+    <t>Plasma specimen</t>
   </si>
   <si>
     <t>440500007</t>
   </si>
   <si>
-    <t>Dried blood spot specimen (specimen)</t>
+    <t>Dried blood spot specimen</t>
   </si>
   <si>
     <t>441620008</t>
   </si>
   <si>
-    <t>Oral fluid specimen (specimen)</t>
+    <t>Oral fluid specimen</t>
   </si>
   <si>
     <t>258580003</t>
   </si>
   <si>
-    <t>Whole blood specimen (specimen)</t>
+    <t>Whole blood specimen</t>
   </si>
   <si>
     <t>119364003</t>
   </si>
   <si>
-    <t>Serum specimen (specimen)</t>
+    <t>Serum specimen</t>
   </si>
   <si>
     <t/>
